--- a/деякі баги.xlsx
+++ b/деякі баги.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0308863F-BC74-4035-A9D8-7C95ABBBBB7A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02FD723-4C27-4AE1-B4DA-E9B2D3BFBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC89F354-188C-43B2-AE9D-FAB81480872B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
   <si>
     <t>Назва багу</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t>Контакти викладача не приховується після активації(мобільна)</t>
+  </si>
+  <si>
+    <t>https://vladm2329.atlassian.net/browse/RRRR-1</t>
   </si>
 </sst>
 </file>
@@ -99,7 +102,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -122,11 +125,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -142,6 +160,9 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -460,8 +481,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D26361-D01F-443E-ACED-38F715417BAE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -526,7 +547,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="43.2" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="43.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5" t="s">
         <v>14</v>
       </c>
@@ -534,7 +555,11 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="9" spans="1:2" ht="37.799999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/деякі баги.xlsx
+++ b/деякі баги.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A02FD723-4C27-4AE1-B4DA-E9B2D3BFBB17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC8A46-86AB-4539-866E-113F715387E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC89F354-188C-43B2-AE9D-FAB81480872B}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Назва багу</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t>https://vladm2329.atlassian.net/browse/RRRR-1</t>
+  </si>
+  <si>
+    <t>Опис багу</t>
   </si>
 </sst>
 </file>
@@ -481,8 +484,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D26361-D01F-443E-ACED-38F715417BAE}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -496,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="38.4" customHeight="1" x14ac:dyDescent="0.3">

--- a/деякі баги.xlsx
+++ b/деякі баги.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="d:\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26EC8A46-86AB-4539-866E-113F715387E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5CF315-D276-457E-9FE6-F4884CCC719C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{BC89F354-188C-43B2-AE9D-FAB81480872B}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
